--- a/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
+++ b/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="2940" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="13060" yWindow="3960" windowWidth="30400" windowHeight="19700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -507,6 +508,49 @@
         <a:xfrm>
           <a:off x="1727200" y="6413500"/>
           <a:ext cx="2197100" cy="1797628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6845300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660399" y="1473199"/>
+          <a:ext cx="6946901" cy="3081609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1288,4 +1332,422 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:H38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="92" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="8" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:7" ht="19">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="3:7" ht="19">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7" ht="19">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7" ht="19">
+      <c r="C9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7" ht="19">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:7" ht="19">
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" ht="19">
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:7" ht="19">
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:7" ht="19">
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="3:7" ht="19">
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="3:7" ht="19">
+      <c r="C16" s="6">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" ht="19">
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" ht="19">
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" ht="19">
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="19">
+      <c r="C26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:8" ht="19">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="3:8" ht="19">
+      <c r="C28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="19">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="19">
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="19">
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3</v>
+      </c>
+      <c r="H31" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="19">
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="19">
+      <c r="C33" s="6">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="19">
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="19">
+      <c r="C35" s="6">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>11</v>
+      </c>
+      <c r="H35" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="19">
+      <c r="C36" s="6">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="19">
+      <c r="C37" s="6">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6">
+        <v>15</v>
+      </c>
+      <c r="H37" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="19">
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
+++ b/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="3960" windowWidth="30400" windowHeight="19700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13060" yWindow="3960" windowWidth="30400" windowHeight="19700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -212,8 +213,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -334,7 +337,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="99">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -383,6 +386,7 @@
     <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -432,6 +436,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1338,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A26" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1750,4 +1755,196 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C12:F24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="92" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="3:6" ht="19">
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:6" ht="19">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:6" ht="19">
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="19">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="19">
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="19">
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="19">
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="19">
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="19">
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="19">
+      <c r="C22" s="6">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="19">
+      <c r="C23" s="6">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="19">
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
+++ b/src/assets/ec-category-hierarchy/ec-category-hierarchy.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="3960" windowWidth="30400" windowHeight="19700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13060" yWindow="3960" windowWidth="30400" windowHeight="19700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +114,27 @@
   </si>
   <si>
     <t>right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーツリー情報 (category_tree_paths)</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先祖</t>
+    <rPh sb="0" eb="2">
+      <t>センゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子孫</t>
+    <rPh sb="0" eb="2">
+      <t>シソン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -213,7 +235,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,8 +335,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,8 +368,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="109">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -387,6 +420,11 @@
     <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -437,6 +475,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -556,6 +599,49 @@
         <a:xfrm>
           <a:off x="660399" y="1473199"/>
           <a:ext cx="6946901" cy="3081609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="243840"/>
+          <a:ext cx="5953760" cy="2641057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C12:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1947,4 +2033,313 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C14:M26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:13" ht="19">
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="19">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="3:13" ht="19">
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="19">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>7</v>
+      </c>
+      <c r="M17" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="19">
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>8</v>
+      </c>
+      <c r="M18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="19">
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="L19" s="6">
+        <v>8</v>
+      </c>
+      <c r="M19" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="19">
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>8</v>
+      </c>
+      <c r="M20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="19">
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="L21" s="6">
+        <v>9</v>
+      </c>
+      <c r="M21" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="19">
+      <c r="C22" s="6">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="19">
+      <c r="C23" s="6">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>7</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="19">
+      <c r="C24" s="6">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="19">
+      <c r="C25" s="6">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6">
+        <v>6</v>
+      </c>
+      <c r="J25" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="19">
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>